--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A14CB-19F8-4F0F-A991-8DF4D565F1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="3525" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13371"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -143,150 +150,127 @@
   </si>
   <si>
     <t>UILevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>默认(底层)</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>调试层</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>系统层</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>顶层</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>中间层</t>
   </si>
   <si>
     <t>Bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层</t>
+  </si>
+  <si>
+    <t>UIShowMode</t>
+  </si>
+  <si>
+    <t>默认(覆盖)</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>覆盖</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>入栈(隐藏最近打开，当关闭时重新显示)</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>替换(关闭最近打开)</t>
   </si>
   <si>
     <t>UIPanelId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Startup</t>
+  </si>
+  <si>
+    <t>开始界面</t>
   </si>
   <si>
     <t>Home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商店界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIShowMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入栈(隐藏最近打开，当关闭时重新显示)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换(关闭最近打开)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认(覆盖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认(底层)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Joystick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摇杆界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>策略回合商店界面</t>
+  </si>
+  <si>
+    <t>UIWidgetId</t>
   </si>
   <si>
     <t>摇杆控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIWidgetId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,21 +279,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,25 +439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,8 +467,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -370,9 +677,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -384,52 +933,96 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFE7BDEF"/>
+      <color rgb="00E7BDEF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -687,19 +1280,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -709,10 +1302,10 @@
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,15 +1327,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,14 +1361,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="99" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -798,7 +1391,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -821,7 +1414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:11">
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -835,7 +1428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:11">
       <c r="H6" t="s">
         <v>26</v>
       </c>
@@ -849,7 +1442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:11">
       <c r="H7" t="s">
         <v>29</v>
       </c>
@@ -863,7 +1456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -880,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:10">
       <c r="H9" t="s">
         <v>34</v>
       </c>
@@ -888,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:10">
       <c r="H10" t="s">
         <v>35</v>
       </c>
@@ -896,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:10">
       <c r="H11" t="s">
         <v>36</v>
       </c>
@@ -904,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:11">
       <c r="H12" t="s">
         <v>37</v>
       </c>
@@ -915,378 +1508,397 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="7" t="b">
+      <c r="C13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="7" t="b">
+      <c r="D13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="D19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <v>2</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7">
+      <c r="I27" s="9"/>
+      <c r="J27" s="8">
+        <v>4</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8">
         <v>5</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7">
-        <v>4</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7">
-        <v>3</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>2</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8" t="s">
+      <c r="K28" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8">
+        <v>6</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="10">
         <v>1</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5">
-        <v>3</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>71</v>
+      <c r="K31" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F992C91-749A-48BA-9732-9105DE90AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13371"/>
+    <workbookView xWindow="5610" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -258,19 +251,51 @@
   </si>
   <si>
     <t>摇杆控件</t>
+  </si>
+  <si>
+    <t>匹配界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ching</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗主界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaMain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,151 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,25 +326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,194 +354,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -677,251 +378,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,9 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -962,67 +418,26 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00E7BDEF"/>
+      <color rgb="FFE7BDEF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1280,19 +695,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
@@ -1305,7 +720,7 @@
     <col min="11" max="11" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,15 +742,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,14 +776,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1391,7 +806,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="8:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="8:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>26</v>
       </c>
@@ -1442,7 +857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="8:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
         <v>29</v>
       </c>
@@ -1456,7 +871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -1473,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="8:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
         <v>34</v>
       </c>
@@ -1481,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="8:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>35</v>
       </c>
@@ -1489,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="8:10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
         <v>36</v>
       </c>
@@ -1497,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="8:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>37</v>
       </c>
@@ -1508,388 +923,439 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="b">
+      <c r="C13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="b">
+      <c r="D13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="6" t="b">
+      <c r="C19" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="6" t="b">
+      <c r="D19" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
         <v>2</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5">
         <v>3</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="8" t="b">
+      <c r="C23" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="8" t="b">
+      <c r="D23" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7">
         <v>1</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7">
         <v>2</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8">
+      <c r="I26" s="8"/>
+      <c r="J26" s="7">
         <v>3</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8">
+      <c r="I27" s="8"/>
+      <c r="J27" s="7">
         <v>4</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="8">
+      <c r="I28" s="8"/>
+      <c r="J28" s="7">
         <v>5</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="8">
+      <c r="I29" s="8"/>
+      <c r="J29" s="7">
         <v>6</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="7">
+        <v>7</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="7">
+        <v>8</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="10" t="b">
+      <c r="C33" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="10" t="b">
+      <c r="D33" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
         <v>0</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="10">
+      <c r="I34" s="10"/>
+      <c r="J34" s="9">
         <v>1</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1897,8 +1363,8 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F992C91-749A-48BA-9732-9105DE90AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF28F21-9B79-4B4B-A221-C6003CAADEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="4410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -290,12 +290,77 @@
     <t>ArenaMain</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egister</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hooseHero</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄选择界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄卡片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币状态界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +378,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +489,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,13 +818,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1126,47 +1202,41 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1178,33 +1248,33 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1216,14 +1286,14 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1234,15 +1304,15 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="8" t="s">
-        <v>71</v>
+      <c r="H28" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="7">
-        <v>5</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1254,14 +1324,14 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1272,15 +1342,15 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
-        <v>78</v>
+      <c r="H30" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1291,15 +1361,15 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>80</v>
+      <c r="H31" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1310,53 +1380,167 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
+      <c r="J32" s="7">
+        <v>8</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="7">
+        <v>9</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7">
+        <v>10</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7">
+        <v>11</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7">
+        <v>12</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="9" t="b">
+      <c r="C38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="9" t="b">
+      <c r="D38" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9">
         <v>0</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9">
+      <c r="I39" s="10"/>
+      <c r="J39" s="9">
         <v>1</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9">
+        <v>2</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
